--- a/scenario_config/cross-gama-params.xlsx
+++ b/scenario_config/cross-gama-params.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t xml:space="preserve">feat</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">vtype_eb_left4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_eb_left5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_eb_straight1</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t xml:space="preserve">vtype_eb_straight4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_eb_straight5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_eb_right1</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t xml:space="preserve">vtype_eb_right4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_eb_right5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_wb_left1</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t xml:space="preserve">vtype_wb_left4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_wb_left5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_wb_straight1</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t xml:space="preserve">vtype_wb_straight4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_wb_straight5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_wb_right1</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t xml:space="preserve">vtype_wb_right4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_wb_right5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_nb_left1</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
     <t xml:space="preserve">vtype_nb_left4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_nb_left5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_nb_straight1</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t xml:space="preserve">vtype_nb_straight4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_nb_straight5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_nb_right1</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t xml:space="preserve">vtype_nb_right4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_nb_right5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_sb_left1</t>
   </si>
   <si>
@@ -241,9 +214,6 @@
     <t xml:space="preserve">vtype_sb_left4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_sb_left5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_sb_straight1</t>
   </si>
   <si>
@@ -256,9 +226,6 @@
     <t xml:space="preserve">vtype_sb_straight4</t>
   </si>
   <si>
-    <t xml:space="preserve">vtype_sb_straight5</t>
-  </si>
-  <si>
     <t xml:space="preserve">vtype_sb_right1</t>
   </si>
   <si>
@@ -269,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">vtype_sb_right4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vtype_sb_right5</t>
   </si>
   <si>
     <t xml:space="preserve">dut_s0</t>
@@ -322,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -386,13 +350,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -419,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,18 +429,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,13 +446,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N62" activeCellId="0" sqref="N62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.47"/>
@@ -1501,199 +1446,19 @@
       <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="15"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
